--- a/data/trans_orig/APOYO_SOCIAL_OSLO_CAT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_OSLO_CAT-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social categorias OSLO en Barcelona</t>
+          <t>Apoyo social categorias OSLO en Barcelona (tasa de respuesta: 97,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/APOYO_SOCIAL_OSLO_CAT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_OSLO_CAT-Edad-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15255</t>
+          <t>15427</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26039</t>
+          <t>25785</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>42,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13992</t>
+          <t>13970</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23639</t>
+          <t>23088</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>40,49%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>31987</t>
+          <t>31549</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>46421</t>
+          <t>45406</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>38,18%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27869</t>
+          <t>28007</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39117</t>
+          <t>39453</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,03%</t>
+          <t>46,26%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>64,61%</t>
+          <t>65,17%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27421</t>
+          <t>27912</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37852</t>
+          <t>37664</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>47,81%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>64,83%</t>
+          <t>64,51%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>58055</t>
+          <t>58704</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>73436</t>
+          <t>73455</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>48,82%</t>
+          <t>49,36%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>61,75%</t>
+          <t>61,76%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3422</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10519</t>
+          <t>11725</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4578</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11346</t>
+          <t>11419</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>9998</t>
+          <t>9943</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>19685</t>
+          <t>19830</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>16,67%</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30555</t>
+          <t>30294</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45093</t>
+          <t>44780</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,16%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>41825</t>
+          <t>41137</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>57663</t>
+          <t>57369</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>46,99%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>75796</t>
+          <t>76483</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>97488</t>
+          <t>98479</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>31,83%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>40,99%</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62337</t>
+          <t>62746</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78590</t>
+          <t>77980</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,75%</t>
+          <t>53,1%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,5%</t>
+          <t>65,99%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49566</t>
+          <t>49812</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>66019</t>
+          <t>66333</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>40,8%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>54,07%</t>
+          <t>54,33%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>117550</t>
+          <t>116389</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>140323</t>
+          <t>139460</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>48,92%</t>
+          <t>48,44%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>58,4%</t>
+          <t>58,04%</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6761</t>
+          <t>6172</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15614</t>
+          <t>15267</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9608</t>
+          <t>9829</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21018</t>
+          <t>21162</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>18675</t>
+          <t>18951</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>32365</t>
+          <t>32810</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,66%</t>
         </is>
       </c>
     </row>
@@ -1650,12 +1650,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39640</t>
+          <t>39604</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>56554</t>
+          <t>56219</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>42,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>37405</t>
+          <t>36643</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>52468</t>
+          <t>52433</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>40,45%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>81210</t>
+          <t>81458</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>103913</t>
+          <t>103384</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>31,25%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>39,66%</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60045</t>
+          <t>60682</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>77888</t>
+          <t>77954</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>46,34%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>59,52%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>58770</t>
+          <t>58847</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>76278</t>
+          <t>76068</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1813,12 +1813,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>45,37%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>58,81%</t>
+          <t>58,65%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>124628</t>
+          <t>124245</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>149505</t>
+          <t>147038</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>47,81%</t>
+          <t>47,66%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>57,35%</t>
+          <t>56,41%</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9442</t>
+          <t>9666</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22252</t>
+          <t>22200</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11839</t>
+          <t>11580</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>24788</t>
+          <t>24110</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1946,12 +1946,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>24965</t>
+          <t>24248</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>42472</t>
+          <t>41329</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>15,85%</t>
         </is>
       </c>
     </row>
@@ -2106,12 +2106,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>28028</t>
+          <t>27832</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>41731</t>
+          <t>42228</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>42399</t>
+          <t>43036</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>57862</t>
+          <t>58141</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>37,42%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>73907</t>
+          <t>74593</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>95124</t>
+          <t>96403</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>42,91%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>55888</t>
+          <t>54727</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>71049</t>
+          <t>70938</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>49,92%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>64,81%</t>
+          <t>64,71%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>47824</t>
+          <t>48078</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>63331</t>
+          <t>63004</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>41,58%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>55,06%</t>
+          <t>54,78%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>108380</t>
+          <t>108132</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>129856</t>
+          <t>130591</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>48,24%</t>
+          <t>48,13%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>57,8%</t>
+          <t>58,13%</t>
         </is>
       </c>
     </row>
@@ -2332,12 +2332,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7404</t>
+          <t>7902</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17044</t>
+          <t>17777</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2347,12 +2347,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>5052</t>
+          <t>4885</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>17728</t>
+          <t>17429</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>14570</t>
+          <t>14610</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>29494</t>
+          <t>29465</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,12%</t>
         </is>
       </c>
     </row>
@@ -2562,12 +2562,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>20995</t>
+          <t>21249</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>33328</t>
+          <t>33785</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2577,12 +2577,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>40387</t>
+          <t>40272</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>54351</t>
+          <t>55237</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>49,6%</t>
+          <t>50,41%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>64173</t>
+          <t>64606</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>82704</t>
+          <t>83942</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>41,59%</t>
+          <t>42,21%</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>44231</t>
+          <t>44110</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>58406</t>
+          <t>58356</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2690,12 +2690,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,54%</t>
+          <t>49,41%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>65,42%</t>
+          <t>65,37%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>41386</t>
+          <t>40759</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>55608</t>
+          <t>55169</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2725,12 +2725,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>37,2%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>50,75%</t>
+          <t>50,35%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>90620</t>
+          <t>90531</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>110894</t>
+          <t>110350</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2760,12 +2760,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>45,53%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>55,77%</t>
+          <t>55,49%</t>
         </is>
       </c>
     </row>
@@ -2788,12 +2788,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6487</t>
+          <t>6414</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16588</t>
+          <t>17452</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2803,12 +2803,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>9963</t>
+          <t>9688</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>19974</t>
+          <t>19874</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>17927</t>
+          <t>18670</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>32688</t>
+          <t>33237</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,71%</t>
         </is>
       </c>
     </row>
@@ -3018,12 +3018,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>17813</t>
+          <t>17796</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>28678</t>
+          <t>29723</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3033,12 +3033,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>49,42%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>33605</t>
+          <t>33770</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>47094</t>
+          <t>46733</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>40,68%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>56,73%</t>
+          <t>56,3%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>53835</t>
+          <t>53852</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>72158</t>
+          <t>71792</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>50,41%</t>
+          <t>50,15%</t>
         </is>
       </c>
     </row>
@@ -3131,12 +3131,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>28454</t>
+          <t>28362</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>39599</t>
+          <t>39663</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>47,31%</t>
+          <t>47,16%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>65,85%</t>
+          <t>65,95%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>28735</t>
+          <t>28872</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>42558</t>
+          <t>41952</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>51,27%</t>
+          <t>50,54%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>60168</t>
+          <t>60295</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>78444</t>
+          <t>79172</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>42,03%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>55,31%</t>
         </is>
       </c>
     </row>
@@ -3244,12 +3244,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>5433</t>
+          <t>5495</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3259,12 +3259,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>4039</t>
+          <t>4409</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>15012</t>
+          <t>15229</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>6758</t>
+          <t>6598</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>18153</t>
+          <t>17591</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,29%</t>
         </is>
       </c>
     </row>
@@ -3474,12 +3474,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>14612</t>
+          <t>14362</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>24523</t>
+          <t>24536</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3489,12 +3489,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>25208</t>
+          <t>24927</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>37936</t>
+          <t>38069</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3524,12 +3524,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>51,0%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>42911</t>
+          <t>42512</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>58654</t>
+          <t>58010</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3559,12 +3559,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>45,01%</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>21393</t>
+          <t>21150</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>32217</t>
+          <t>31551</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>39,0%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>59,41%</t>
+          <t>58,18%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3622,12 +3622,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>27527</t>
+          <t>28100</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>39971</t>
+          <t>40689</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3637,12 +3637,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>37,65%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>53,55%</t>
+          <t>54,51%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>52222</t>
+          <t>52070</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>68229</t>
+          <t>68521</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>40,41%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>52,94%</t>
+          <t>53,17%</t>
         </is>
       </c>
     </row>
@@ -3700,12 +3700,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4667</t>
+          <t>4723</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>13804</t>
+          <t>13631</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>25,14%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3735,12 +3735,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>5630</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>14547</t>
+          <t>15103</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3750,12 +3750,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3770,12 +3770,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>12265</t>
+          <t>12229</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>25498</t>
+          <t>25658</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>19,91%</t>
         </is>
       </c>
     </row>
@@ -3930,12 +3930,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>191256</t>
+          <t>188718</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>227241</t>
+          <t>224862</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3945,12 +3945,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3965,12 +3965,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>264292</t>
+          <t>265031</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>300087</t>
+          <t>301457</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3980,12 +3980,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>38,28%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>43,54%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -4000,12 +4000,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>462302</t>
+          <t>464619</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>515153</t>
+          <t>517088</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4015,12 +4015,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>39,31%</t>
         </is>
       </c>
     </row>
@@ -4043,12 +4043,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>331901</t>
+          <t>330601</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>368491</t>
+          <t>369464</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4058,12 +4058,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>53,28%</t>
+          <t>53,07%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>59,15%</t>
+          <t>59,31%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4078,12 +4078,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>313723</t>
+          <t>311504</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>351976</t>
+          <t>348211</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4093,12 +4093,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4113,12 +4113,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>652974</t>
+          <t>654357</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>705394</t>
+          <t>707428</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4128,12 +4128,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>49,64%</t>
+          <t>49,75%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>53,63%</t>
+          <t>53,78%</t>
         </is>
       </c>
     </row>
@@ -4156,12 +4156,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>53442</t>
+          <t>54134</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>77131</t>
+          <t>77514</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4171,12 +4171,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4191,12 +4191,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>67413</t>
+          <t>66745</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>95700</t>
+          <t>93560</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4206,12 +4206,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4226,12 +4226,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>128803</t>
+          <t>128392</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>164699</t>
+          <t>165301</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4241,12 +4241,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,57%</t>
         </is>
       </c>
     </row>
